--- a/dijkstra_a.xlsx
+++ b/dijkstra_a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\SC2001\Lab\school_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F453A4-6FD6-4095-93DC-292B4838FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF688FD4-E9C3-417F-BB6D-A1E7ECF26810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D204D345-3936-403A-9950-9AD83508C326}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D204D345-3936-403A-9950-9AD83508C326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
     <t>V</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>%increase</t>
+  </si>
+  <si>
+    <t>GROUP BASED ON E</t>
   </si>
 </sst>
 </file>
@@ -100,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ECC285-032D-4DAA-81C6-C8F064C0A6F4}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,6 +526,9 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -573,6 +580,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -624,7 +634,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,6 +734,9 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -773,6 +788,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50</v>
+      </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -824,7 +842,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>50</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -922,6 +942,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -973,6 +996,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1050,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>100</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,6 +1150,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>500</v>
+      </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -1173,6 +1204,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>500</v>
+      </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +1258,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>500</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,6 +1358,9 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1000</v>
+      </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -1373,6 +1412,9 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1000</v>
+      </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -1424,7 +1466,9 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>1000</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1473,6 +1517,1110 @@
       <c r="P21" s="1">
         <f t="shared" si="10"/>
         <v>62.420971222179553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>A26</f>
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="F26">
+        <v>1.454</v>
+      </c>
+      <c r="G26">
+        <v>1.2087000000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.1414</v>
+      </c>
+      <c r="I26">
+        <v>1.0387</v>
+      </c>
+      <c r="J26">
+        <v>1.2763</v>
+      </c>
+      <c r="K26">
+        <v>1.1029</v>
+      </c>
+      <c r="L26">
+        <v>1.0704</v>
+      </c>
+      <c r="M26">
+        <v>1.0851</v>
+      </c>
+      <c r="N26">
+        <v>1.216</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O45" si="11">AVERAGE(E26:N26)</f>
+        <v>1.1775899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <f>(A27-A26)/A26*100</f>
+        <v>400</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f>A27</f>
+        <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.5584</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.2742</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.1596</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.2379</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.3230999999999999</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.4077</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.2824</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.3008</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1.3534999999999999</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3229599999999999</v>
+      </c>
+      <c r="P27" s="2">
+        <f>(O27-O26)/O26*100</f>
+        <v>12.344704014130556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B30" si="12">(A28-A27)/A27*100</f>
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>A28</f>
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>1.9532</v>
+      </c>
+      <c r="F28">
+        <v>1.8108</v>
+      </c>
+      <c r="G28">
+        <v>1.9872000000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.5237000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.8345</v>
+      </c>
+      <c r="J28">
+        <v>2.0097999999999998</v>
+      </c>
+      <c r="K28">
+        <v>2.2219000000000002</v>
+      </c>
+      <c r="L28">
+        <v>1.7894000000000001</v>
+      </c>
+      <c r="M28">
+        <v>1.7402</v>
+      </c>
+      <c r="N28">
+        <v>1.6862999999999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>1.8557000000000001</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28:P30" si="13">(O28-O27)/O27*100</f>
+        <v>40.268791195501016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>A29</f>
+        <v>500</v>
+      </c>
+      <c r="E29">
+        <v>9.3224999999999998</v>
+      </c>
+      <c r="F29">
+        <v>9.2330000000000005</v>
+      </c>
+      <c r="G29">
+        <v>11.2263</v>
+      </c>
+      <c r="H29">
+        <v>9.5992999999999995</v>
+      </c>
+      <c r="I29">
+        <v>7.9634</v>
+      </c>
+      <c r="J29">
+        <v>8.6605000000000008</v>
+      </c>
+      <c r="K29">
+        <v>9.1953999999999994</v>
+      </c>
+      <c r="L29">
+        <v>9.0844000000000005</v>
+      </c>
+      <c r="M29">
+        <v>9.8109999999999999</v>
+      </c>
+      <c r="N29">
+        <v>8.4021000000000008</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>9.2497900000000008</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="13"/>
+        <v>398.45287492590398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <f>A30</f>
+        <v>1000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18.234000000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>16.789000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>16.984200000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>17.973600000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>16.987500000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>16.657699999999998</v>
+      </c>
+      <c r="K30" s="1">
+        <v>16.692299999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>17.120999999999999</v>
+      </c>
+      <c r="M30" s="1">
+        <v>16.174299999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <v>17.1599</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="11"/>
+        <v>17.077349999999999</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="13"/>
+        <v>84.624191468130604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f>A26*2</f>
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>1.4135</v>
+      </c>
+      <c r="F31">
+        <v>1.0672999999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.3796999999999999</v>
+      </c>
+      <c r="I31">
+        <v>1.1255999999999999</v>
+      </c>
+      <c r="J31">
+        <v>1.0633999999999999</v>
+      </c>
+      <c r="K31">
+        <v>1.2364999999999999</v>
+      </c>
+      <c r="L31">
+        <v>1.0367</v>
+      </c>
+      <c r="M31">
+        <v>1.3694</v>
+      </c>
+      <c r="N31">
+        <v>1.8304</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>1.2529499999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <f>(A32-A31)/A31*100</f>
+        <v>400</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f>A27*2</f>
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>1.629</v>
+      </c>
+      <c r="F32">
+        <v>1.4878</v>
+      </c>
+      <c r="G32">
+        <v>1.2235</v>
+      </c>
+      <c r="H32">
+        <v>1.3406</v>
+      </c>
+      <c r="I32">
+        <v>1.5523</v>
+      </c>
+      <c r="J32">
+        <v>1.4468000000000001</v>
+      </c>
+      <c r="K32">
+        <v>1.377</v>
+      </c>
+      <c r="L32">
+        <v>1.7331000000000001</v>
+      </c>
+      <c r="M32">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="N32">
+        <v>1.403</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>1.4565600000000001</v>
+      </c>
+      <c r="P32" s="2">
+        <f>(O32-O31)/O31*100</f>
+        <v>16.250448940500444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B35" si="14">(A33-A32)/A32*100</f>
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <f>A28*2</f>
+        <v>200</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.9068000000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.0293000000000001</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.7634000000000001</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.8994</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2.1642000000000001</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.8422000000000001</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1.7025999999999999</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.6724000000000001</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2.1993</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2.1307</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9310300000000002</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" ref="P33:P35" si="15">(O33-O32)/O32*100</f>
+        <v>32.574696545284795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <f>A29*2</f>
+        <v>1000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9.2734000000000005</v>
+      </c>
+      <c r="F34" s="2">
+        <v>10.444800000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>9.1222999999999992</v>
+      </c>
+      <c r="H34" s="2">
+        <v>11.014099999999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9.7454000000000001</v>
+      </c>
+      <c r="J34" s="2">
+        <v>9.1672999999999991</v>
+      </c>
+      <c r="K34" s="2">
+        <v>8.6707000000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <v>9.3369999999999997</v>
+      </c>
+      <c r="M34" s="2">
+        <v>8.9345999999999997</v>
+      </c>
+      <c r="N34" s="2">
+        <v>8.9679000000000002</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="11"/>
+        <v>9.4677500000000006</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="15"/>
+        <v>390.29533461416963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <f>A30*2</f>
+        <v>2000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>17.731000000000002</v>
+      </c>
+      <c r="F35" s="1">
+        <v>17.9832</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17.765999999999998</v>
+      </c>
+      <c r="H35" s="1">
+        <v>18.4344</v>
+      </c>
+      <c r="I35" s="1">
+        <v>19.398199999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>19.698699999999999</v>
+      </c>
+      <c r="K35" s="1">
+        <v>17.847000000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>18.415700000000001</v>
+      </c>
+      <c r="M35" s="1">
+        <v>17.805900000000001</v>
+      </c>
+      <c r="N35" s="1">
+        <v>18.524100000000001</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="11"/>
+        <v>18.360420000000001</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="15"/>
+        <v>93.925906366348926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>A26*5</f>
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>1.5041</v>
+      </c>
+      <c r="F36">
+        <v>1.073</v>
+      </c>
+      <c r="G36">
+        <v>1.0978000000000001</v>
+      </c>
+      <c r="H36">
+        <v>1.3366</v>
+      </c>
+      <c r="I36">
+        <v>1.5611999999999999</v>
+      </c>
+      <c r="J36">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="K36">
+        <v>1.1757</v>
+      </c>
+      <c r="L36">
+        <v>1.0766</v>
+      </c>
+      <c r="M36">
+        <v>1.0274000000000001</v>
+      </c>
+      <c r="N36">
+        <v>1.1847000000000001</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="11"/>
+        <v>1.2080699999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <f>(A37-A36)/A36*100</f>
+        <v>400</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f>A27*5</f>
+        <v>250</v>
+      </c>
+      <c r="E37">
+        <v>1.5104</v>
+      </c>
+      <c r="F37">
+        <v>1.444</v>
+      </c>
+      <c r="G37">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="H37">
+        <v>1.7566999999999999</v>
+      </c>
+      <c r="I37">
+        <v>1.3596999999999999</v>
+      </c>
+      <c r="J37">
+        <v>1.4157999999999999</v>
+      </c>
+      <c r="K37">
+        <v>1.8067</v>
+      </c>
+      <c r="L37">
+        <v>1.5506</v>
+      </c>
+      <c r="M37">
+        <v>1.4499</v>
+      </c>
+      <c r="N37">
+        <v>1.5085</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="11"/>
+        <v>1.61103</v>
+      </c>
+      <c r="P37" s="2">
+        <f>(O37-O36)/O36*100</f>
+        <v>33.355683031612429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B40" si="16">(A38-A37)/A37*100</f>
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <f>A28*5</f>
+        <v>500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.1785000000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2.1358999999999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.7488999999999999</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2.8563999999999998</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2.7770999999999999</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2.3805999999999998</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.9419</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2.5001000000000002</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2.4883000000000002</v>
+      </c>
+      <c r="N38" s="2">
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4123699999999997</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38:P40" si="17">(O38-O37)/O37*100</f>
+        <v>49.740849022054192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>500</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <f>A29*5</f>
+        <v>2500</v>
+      </c>
+      <c r="E39" s="2">
+        <v>11.065</v>
+      </c>
+      <c r="F39" s="2">
+        <v>11.348800000000001</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10.255699999999999</v>
+      </c>
+      <c r="H39" s="2">
+        <v>11.272500000000001</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10.813700000000001</v>
+      </c>
+      <c r="J39" s="2">
+        <v>11.5863</v>
+      </c>
+      <c r="K39" s="2">
+        <v>10.686199999999999</v>
+      </c>
+      <c r="L39" s="2">
+        <v>10.623900000000001</v>
+      </c>
+      <c r="M39" s="2">
+        <v>10.3551</v>
+      </c>
+      <c r="N39" s="2">
+        <v>10.780099999999999</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="11"/>
+        <v>10.878730000000001</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="17"/>
+        <v>350.95611369731853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <f>A30*5</f>
+        <v>5000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>18.524100000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20.136800000000001</v>
+      </c>
+      <c r="G40" s="1">
+        <v>20.823699999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>20.927299999999999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20.253399999999999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>20.9787</v>
+      </c>
+      <c r="K40" s="1">
+        <v>22.3843</v>
+      </c>
+      <c r="L40" s="1">
+        <v>25.816099999999999</v>
+      </c>
+      <c r="M40" s="1">
+        <v>19.672499999999999</v>
+      </c>
+      <c r="N40" s="1">
+        <v>19.821400000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="11"/>
+        <v>20.933830000000004</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="17"/>
+        <v>92.428987574836412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <f>A26*(A26-1)</f>
+        <v>90</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.165</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.0104</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.1466000000000001</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1.1508</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1.2826</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1.1315</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1.1600999999999999</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1.0046999999999999</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1.0450999999999999</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1086399999999998</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <f>(A42-A41)/A41*100</f>
+        <v>400</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <f>A27*(A27-1)</f>
+        <v>2450</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.0442999999999998</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.8104</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1.8297000000000001</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2.0055999999999998</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.6932</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1.9303999999999999</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1.8687</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2.2831000000000001</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2.4765999999999999</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0536000000000003</v>
+      </c>
+      <c r="P42" s="2">
+        <f>(O42-O41)/O41*100</f>
+        <v>85.235964785683421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B45" si="18">(A43-A42)/A42*100</f>
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <f>A28*(A28-1)</f>
+        <v>9900</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.8898999999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3.9444400000000002</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3.6764999999999999</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3.0581</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3.1286999999999998</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3.0051000000000001</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="L43" s="2">
+        <v>3.5206</v>
+      </c>
+      <c r="M43" s="2">
+        <v>3.3822000000000001</v>
+      </c>
+      <c r="N43" s="2">
+        <v>3.3197000000000001</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="11"/>
+        <v>3.3017240000000001</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" ref="P43:P45" si="19">(O43-O42)/O42*100</f>
+        <v>60.777366575769364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="18"/>
+        <v>400</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <f>A29*(A29-1)</f>
+        <v>249500</v>
+      </c>
+      <c r="E44" s="2">
+        <v>17.5318</v>
+      </c>
+      <c r="F44" s="2">
+        <v>18.3645</v>
+      </c>
+      <c r="G44" s="2">
+        <v>19.062999999999999</v>
+      </c>
+      <c r="H44" s="2">
+        <v>23.460699999999999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>17.359000000000002</v>
+      </c>
+      <c r="J44" s="2">
+        <v>19.508199999999999</v>
+      </c>
+      <c r="K44" s="2">
+        <v>18.891200000000001</v>
+      </c>
+      <c r="L44" s="2">
+        <v>16.367100000000001</v>
+      </c>
+      <c r="M44" s="2">
+        <v>17.1372</v>
+      </c>
+      <c r="N44" s="2">
+        <v>19.064800000000002</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="11"/>
+        <v>18.67475</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="19"/>
+        <v>465.60602885038236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <f>A30*(A30-1)</f>
+        <v>999000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>33.058</v>
+      </c>
+      <c r="F45" s="1">
+        <v>40.822000000000003</v>
+      </c>
+      <c r="G45" s="1">
+        <v>32.736499999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>32.346899999999998</v>
+      </c>
+      <c r="I45" s="1">
+        <v>32.658700000000003</v>
+      </c>
+      <c r="J45" s="1">
+        <v>31.5657</v>
+      </c>
+      <c r="K45" s="1">
+        <v>38.928699999999999</v>
+      </c>
+      <c r="L45" s="1">
+        <v>31.200600000000001</v>
+      </c>
+      <c r="M45" s="1">
+        <v>34.464799999999997</v>
+      </c>
+      <c r="N45" s="1">
+        <v>32.227400000000003</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="11"/>
+        <v>34.000929999999997</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="19"/>
+        <v>82.06899690758911</v>
       </c>
     </row>
   </sheetData>
